--- a/time spacing/words_lv.xlsx
+++ b/time spacing/words_lv.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -436,11 +436,11 @@
           <t>(mysterious, creepy) étrange/inquiétant</t>
         </is>
       </c>
-      <c r="C1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>45309</v>
+      <c r="C1" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -454,11 +454,11 @@
           <t>(on ship) mât/(flag)mât/(TV, radio)pylône/(Radio, téléphonie) antenne</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>45309</v>
+      <c r="C2" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -472,11 +472,11 @@
           <t>(remains of ship)épave/naufrage/épave, ruine</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <v>45325</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -490,11 +490,11 @@
           <t>cinglant</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -508,11 +508,11 @@
           <t>smug(adj)suffisant,imbu de soi-même</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -526,11 +526,11 @@
           <t>Scorpion avec deux queux</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>45309</v>
+      <c r="C6" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -544,11 +544,11 @@
           <t>(coffin)cercueil/(small jewellery box)coffret,coffret à bijoux</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>45309</v>
+      <c r="C7" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -562,11 +562,11 @@
           <t>(great skill)Talent,habileté,capacité#(great valor, courage)bravoure</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <v>45317</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -580,11 +580,11 @@
           <t>D’un air grave, d’un air sombre</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>45338</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -598,11 +598,11 @@
           <t>circuler/grouiller/fourmiller(intransitive) to move about in a disorderly or aimless fashion</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <v>45320</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -616,11 +616,11 @@
           <t>grésillant,crépitant</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <v>45320</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -634,11 +634,11 @@
           <t>Scowl at sb=jeter un regard noir à qqn, regarder d’un mauvais oeil, fusiller qqn du regard</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>45312</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -652,11 +652,11 @@
           <t>stride=marcher à grand pas/marcher à grande enjambées</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <v>45319</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -670,11 +670,11 @@
           <t>siffler</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <v>45324</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -688,11 +688,11 @@
           <t>reluctantly=À contrecoeur/avec réticence</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -706,11 +706,11 @@
           <t>seuil</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>45309</v>
+      <c r="C16" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -724,11 +724,11 @@
           <t>merrily</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>45309</v>
+      <c r="C17" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -742,11 +742,11 @@
           <t>Plonk sth(UK)=laisser tomber lourdement qqch/jeter qqch#copper=en cuivre</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>45309</v>
+      <c r="C18" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -760,11 +760,11 @@
           <t>baver/saliver</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>45309</v>
+      <c r="C19" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -778,11 +778,11 @@
           <t>rooster=coq/(figuré)coq#plucked=(contexte)plumé#scrubbed=frotté/récuré/brossé</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>45309</v>
+      <c r="C20" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -796,11 +796,11 @@
           <t>kelpie=kelpie australien(chien de berger)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -814,11 +814,11 @@
           <t>hoarsely=d’une voix rauque</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>45309</v>
+      <c r="C22" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -832,11 +832,11 @@
           <t>front/sourcil(abbréviation eyebrow)/expression facial/visage#His brow was troubled</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="C23" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -850,11 +850,11 @@
           <t>tabouret</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="1" t="n">
         <v>45324</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -868,11 +868,11 @@
           <t>retch=avoir des haut-le-coeur#duck=se baisser (rapidement)/baisser la tête (rapidement)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>16</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -886,11 +886,11 @@
           <t>aube/aurore</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="C26" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -904,11 +904,11 @@
           <t>(élève)appliqué/assidu (familier)fan/aimer</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>45309</v>
+      <c r="C27" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -922,11 +922,11 @@
           <t>Avoir le hoquet/hoqueter</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="C28" s="1" t="n">
         <v>45337</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -940,11 +940,11 @@
           <t>strict/sévère/austère</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="C29" s="1" t="n">
         <v>45314</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -958,11 +958,11 @@
           <t>(personne)se laisser tomber/s’affaisser</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>45309</v>
+      <c r="C30" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -976,11 +976,11 @@
           <t>abasourdi/interloqué</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1" t="n">
+      <c r="C31" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -994,11 +994,11 @@
           <t>racaille</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1" t="n">
+      <c r="C32" s="1" t="n">
         <v>45337</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
           <t>grimacer/(familier)faire la tête</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>45309</v>
+      <c r="C33" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1030,11 +1030,11 @@
           <t>ensorcelé</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>45309</v>
+      <c r="C34" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1048,11 +1048,11 @@
           <t>méprisant/hautaine</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>45309</v>
+      <c r="C35" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1066,11 +1066,11 @@
           <t>Jeter un coup d’oeil</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="n">
+      <c r="C36" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1084,11 +1084,11 @@
           <t>nerf/courage/cran</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="n">
+      <c r="C37" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1102,11 +1102,11 @@
           <t>Du culot/toupet</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="n">
+      <c r="C38" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1120,11 +1120,11 @@
           <t>affluer/se presser</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>45309</v>
+      <c r="C39" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1138,11 +1138,11 @@
           <t>envahir/se presser dans</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>45309</v>
+      <c r="C40" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1156,11 +1156,11 @@
           <t>draught=courant d’air/pression/(bière)pression#dame(échec)</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>16</v>
-      </c>
-      <c r="D41" s="1" t="n">
+      <c r="C41" s="1" t="n">
         <v>45319</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1174,11 +1174,11 @@
           <t>(UK, slang)ficher le camp/filer/prendre ses cliques et ses claques</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="n">
+      <c r="C42" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1192,11 +1192,11 @@
           <t>lorgner/déshabiller du regard#Regarder méchamment</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="n">
+      <c r="C43" s="1" t="n">
         <v>45315</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1210,11 +1210,11 @@
           <t>Marcher sur quelqu’un</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>32</v>
-      </c>
-      <c r="D44" s="1" t="n">
+      <c r="C44" s="1" t="n">
         <v>45339</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1228,11 +1228,11 @@
           <t>habitation/demeure/domicile</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>16</v>
-      </c>
-      <c r="D45" s="1" t="n">
+      <c r="C45" s="1" t="n">
         <v>45322</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1246,11 +1246,11 @@
           <t>scramble=brouiller#gravir/crapahuter#Se précipiter/se ruer</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>16</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>45309</v>
+      <c r="C46" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1264,11 +1264,11 @@
           <t>wary=méfiant/sur ses gardes/circonspect</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>45309</v>
+      <c r="C47" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1282,11 +1282,11 @@
           <t>Stifle [sth]=réprimer/retenir#étouffer/asphyxier/suffoquer#(figurative)étouffer/asphyxier</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>45309</v>
+      <c r="C48" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1300,11 +1300,11 @@
           <t>Divination avec boule de crystal</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="n">
+      <c r="C49" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1318,11 +1318,11 @@
           <t>teinte</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>45309</v>
+      <c r="C50" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1336,11 +1336,11 @@
           <t>lande/tourbière</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>45309</v>
+      <c r="C51" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1354,11 +1354,11 @@
           <t>étaler/échelonner</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="n">
+      <c r="C52" s="1" t="n">
         <v>45314</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1372,11 +1372,11 @@
           <t>boucher/obstruer/bloquer/engorger</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1" t="n">
+      <c r="C53" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1390,11 +1390,11 @@
           <t>détritus/déchets/ordures</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>16</v>
-      </c>
-      <c r="D54" s="1" t="n">
+      <c r="C54" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1408,11 +1408,11 @@
           <t>Marcher d’un pas lourd/marcher/ péniblement(familier) se traîner</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="n">
+      <c r="C55" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1426,11 +1426,11 @@
           <t>Point de coté</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1" t="n">
+      <c r="C56" s="1" t="n">
         <v>45325</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1444,11 +1444,11 @@
           <t>étoilé</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>32</v>
-      </c>
-      <c r="D57" s="1" t="n">
+      <c r="C57" s="1" t="n">
         <v>45330</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1462,11 +1462,11 @@
           <t>nombril/ombilic</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>32</v>
-      </c>
-      <c r="D58" s="1" t="n">
+      <c r="C58" s="1" t="n">
         <v>45340</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1480,11 +1480,11 @@
           <t>Échalier (sorte d’échelle/marche)</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>45309</v>
+      <c r="C59" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1498,11 +1498,11 @@
           <t>scrubby=brousailleux#Patch of ground=parcelle de terrain/terre</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>45309</v>
+      <c r="C60" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1516,11 +1516,11 @@
           <t>Wag sth=(la queue)remuer#remuer/agiter</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1" t="n">
+      <c r="C61" s="1" t="n">
         <v>45314</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1534,11 +1534,11 @@
           <t>(soutien-gorge)bgretelle#(sac/cartable)bandoulière</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>32</v>
-      </c>
-      <c r="D62" s="1" t="n">
+      <c r="C62" s="1" t="n">
         <v>45332</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1552,11 +1552,11 @@
           <t>gnaw=ronger#Gnaw on sth=ronger</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>45309</v>
+      <c r="C63" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1570,11 +1570,11 @@
           <t>Furrow your brow=froncer les sourcils</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>16</v>
-      </c>
-      <c r="D64" s="1" t="n">
+      <c r="C64" s="1" t="n">
         <v>45325</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1588,11 +1588,11 @@
           <t>shriek=hurler/crier#Shriek sth=hurler/crier</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>45309</v>
+      <c r="C65" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1606,11 +1606,11 @@
           <t>poised=prêt#Poised for sth=prêt à#Be poised to do sth=être sur le point de/être prêt à faire qq chose</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" s="1" t="n">
+      <c r="C66" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1624,11 +1624,11 @@
           <t>Shunt sth=déplacer/pousser#Il s’est fait mettre de coté</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>45309</v>
+      <c r="C67" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1642,11 +1642,11 @@
           <t>bicker=se chamailler/se disputer</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>45309</v>
+      <c r="C68" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1660,11 +1660,11 @@
           <t>cunning(smart,clever)=malin/futé/astucieux#cunning(sly, deceptive)=(péjoratif)rusé/fourbe</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1" t="n">
+      <c r="C69" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1678,11 +1678,11 @@
           <t>dodgy(UK, informal)=peu solide#risqué/dangereux#louche/bizarre/suspect#Malhonnête#mauvais/médiocre</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>45309</v>
+      <c r="C70" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1696,11 +1696,11 @@
           <t>pine=être en deuil#Pine to do sth=se languir de faire qqch/avoir très envie de faire qqch#Pine for sth/sb=se languir de qqch/qqn/avoir la nostalgie de qqch/qqn</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>45309</v>
+      <c r="C71" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1714,11 +1714,11 @@
           <t>in a way that shows you refuse or are not willing to do what you are told to do</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>32</v>
-      </c>
-      <c r="D72" s="1" t="n">
+      <c r="C72" s="1" t="n">
         <v>45335</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1732,11 +1732,11 @@
           <t>sway=se balancer/(personne)chanceler</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>45309</v>
+      <c r="C73" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1750,11 +1750,11 @@
           <t>hearth=cheminée/foyer/(littéraire)âptre</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>45309</v>
+      <c r="C74" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1768,11 +1768,11 @@
           <t>lumpy=grumeleux/plein de grumeaux#lumpy=maladroit#tablecloth=nappe</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>45309</v>
+      <c r="C75" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1786,11 +1786,11 @@
           <t>scoff=se moquer de qnqc#Scoff sth(UK, slang)=engloutir/(familier)s’enfiler/bouffer</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>45309</v>
+      <c r="C76" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1804,11 +1804,11 @@
           <t>Serpentin de fumée s’élevant</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>16</v>
-      </c>
-      <c r="D77" s="1" t="n">
+      <c r="C77" s="1" t="n">
         <v>45322</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1822,11 +1822,11 @@
           <t>soar=monter en flèche/s’envoler#soar=s’élever dans les airs/s’envoler#soar(figurative)=monter/grimper en flèche</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>8</v>
-      </c>
-      <c r="D78" s="1" t="n">
+      <c r="C78" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -1840,11 +1840,11 @@
           <t>Cradle sbh=bercer/tenir tendrement</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>16</v>
-      </c>
-      <c r="D79" s="1" t="n">
+      <c r="C79" s="1" t="n">
         <v>45315</v>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -1858,11 +1858,11 @@
           <t>Arracher qqch avec les dents/mordre</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>16</v>
-      </c>
-      <c r="D80" s="1" t="n">
+      <c r="C80" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -1876,11 +1876,11 @@
           <t>with beady eyes (= small, bright eyes like those of a bird), or very closely: She regarded him beadily in a way that suggested she knew he wasn't telling the truth</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>16</v>
-      </c>
-      <c r="D81" s="1" t="n">
+      <c r="C81" s="1" t="n">
         <v>45323</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1894,11 +1894,11 @@
           <t>Surrogacy is an arrangement, often supported by a legal agreement, whereby a woman agrees to delivery/labour on behalf of another couple or person, who will become the child's parent after birth.</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>45309</v>
+      <c r="C82" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1912,11 +1912,11 @@
           <t>lurk=se cacher/se tapir/roder</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>4</v>
-      </c>
-      <c r="D83" s="1" t="n">
+      <c r="C83" s="1" t="n">
         <v>45312</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -1930,11 +1930,11 @@
           <t>Knead [sth]=pétrir/malaxer</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>4</v>
-      </c>
-      <c r="D84" s="1" t="n">
+      <c r="C84" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1948,11 +1948,11 @@
           <t>scrubbed=frotté/récuré/brossé</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>45309</v>
+      <c r="C85" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1966,11 +1966,11 @@
           <t>callus=cal/durillon#Callosité#Corne#Calus#blister=ampoule/cloque</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>45309</v>
+      <c r="C86" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1984,11 +1984,11 @@
           <t>Stir [sth]=mélanger</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>16</v>
-      </c>
-      <c r="D87" s="1" t="n">
+      <c r="C87" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -2002,11 +2002,11 @@
           <t>dustpan=pelle à poussière/pelle</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>16</v>
-      </c>
-      <c r="D88" s="1" t="n">
+      <c r="C88" s="1" t="n">
         <v>45319</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -2020,11 +2020,11 @@
           <t>Couverts#coutellerie</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>4</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>45309</v>
+      <c r="C89" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2038,11 +2038,11 @@
           <t>casserole/poêlon</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>45309</v>
+      <c r="C90" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2056,11 +2056,11 @@
           <t>usé</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>16</v>
-      </c>
-      <c r="D91" s="1" t="n">
+      <c r="C91" s="1" t="n">
         <v>45324</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -2074,11 +2074,11 @@
           <t>haie</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="n">
+      <c r="C92" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2092,11 +2092,11 @@
           <t>planer/faire du surplace/être en vol stationnaire</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>45309</v>
+      <c r="C93" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2110,11 +2110,11 @@
           <t>Avec irritation/avec mauvaise humeur</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>45309</v>
+      <c r="C94" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -2128,11 +2128,11 @@
           <t>Shunt [sth]=déplacer/pousser</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>4</v>
-      </c>
-      <c r="D95" s="1" t="n">
+      <c r="C95" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2146,11 +2146,11 @@
           <t>(bonne)gorgée/lampée</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>45309</v>
+      <c r="C96" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2164,11 +2164,11 @@
           <t>chèvrefeuille</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="n">
+      <c r="C97" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2182,11 +2182,11 @@
           <t>crottin/bouse/fumier</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>8</v>
-      </c>
-      <c r="D98" s="1" t="n">
+      <c r="C98" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -2200,11 +2200,11 @@
           <t>enchevêtrement</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>45309</v>
+      <c r="C99" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2218,11 +2218,11 @@
           <t>Rouse sb to sth = éveiller qq à qqch/susciter/provoquer</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="n">
+      <c r="C100" s="1" t="n">
         <v>45316</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2236,11 +2236,11 @@
           <t>Qui se tortille/se tord de douleur</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>45309</v>
+      <c r="C101" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2254,11 +2254,11 @@
           <t>borne(adj)=porté</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>45309</v>
+      <c r="C102" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -2272,11 +2272,11 @@
           <t>étouffant/suffocant(hot, uncomfortable)#(sexy, sexual) sensuel/voluptueux</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>45309</v>
+      <c r="C103" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2290,11 +2290,11 @@
           <t>bocal/pot</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="n">
+      <c r="C104" s="1" t="n">
         <v>45315</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2308,11 +2308,11 @@
           <t>Bouffée#effluve</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>45309</v>
+      <c r="C105" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2326,11 +2326,11 @@
           <t>Tether sth to sth=Attacher qch à qch</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>4</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>45309</v>
+      <c r="C106" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -2344,11 +2344,11 @@
           <t>Champ de citrouille</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>32</v>
-      </c>
-      <c r="D107" s="1" t="n">
+      <c r="C107" s="1" t="n">
         <v>45337</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2362,11 +2362,11 @@
           <t>Keel over=défaillir/(familier)flancher</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>4</v>
-      </c>
-      <c r="D108" s="1" t="n">
-        <v>45309</v>
+      <c r="C108" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -2380,11 +2380,11 @@
           <t>tramp=marcher d’un pas lourd</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>45309</v>
+      <c r="C109" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2398,11 +2398,11 @@
           <t>Gratté,raclé#(surface)rayé#(peau, genoux) éraflé, écorché</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" s="1" t="n">
-        <v>45309</v>
+      <c r="C110" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2416,11 +2416,11 @@
           <t>Noblement, avec noblesse, avec grandeur#Avec arrogance/avec dédain,avec mépris</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>45309</v>
+      <c r="C111" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2434,11 +2434,11 @@
           <t>Pousser un soupir</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1" t="n">
-        <v>45309</v>
+      <c r="C112" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -2452,11 +2452,11 @@
           <t>Petit salon</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="n">
-        <v>45309</v>
+      <c r="C113" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2470,11 +2470,11 @@
           <t>entrouvert</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>16</v>
-      </c>
-      <c r="D114" s="1" t="n">
+      <c r="C114" s="1" t="n">
         <v>45324</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -2488,11 +2488,11 @@
           <t>Indulgent, clément, tolérant</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>4</v>
-      </c>
-      <c r="D115" s="1" t="n">
+      <c r="C115" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2506,11 +2506,11 @@
           <t>muffled=(voix, son)étouffé#(bruit)sourd#(pas) feutré</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>4</v>
-      </c>
-      <c r="D116" s="1" t="n">
-        <v>45309</v>
+      <c r="C116" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2524,11 +2524,11 @@
           <t>remote(figurative)vague mince</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" s="1" t="n">
-        <v>45309</v>
+      <c r="C117" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2542,11 +2542,11 @@
           <t>Scowl at [sb]=jeter un regard noir à qqn, regarder d’un mauvais oeil,</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="n">
+      <c r="C118" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2560,11 +2560,11 @@
           <t>Marbré, tacheté, tavelé#Couvert de taches</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="n">
+      <c r="C119" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -2578,11 +2578,11 @@
           <t>Furrow your brow=froncer les sourcils</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>16</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>45309</v>
+      <c r="C120" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -2596,11 +2596,11 @@
           <t>Qui glousse, qui rit bêtement</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>45309</v>
+      <c r="C121" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2614,11 +2614,11 @@
           <t>escarpé/raide</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>16</v>
-      </c>
-      <c r="D122" s="1" t="n">
+      <c r="C122" s="1" t="n">
         <v>45325</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -2632,11 +2632,11 @@
           <t>Qui trébuche</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>4</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>45309</v>
+      <c r="C123" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -2650,11 +2650,11 @@
           <t>Sorte en grimpant/escaladant</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="n">
-        <v>45309</v>
+      <c r="C124" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2668,11 +2668,11 @@
           <t>galet/caillou</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
-      <c r="D125" s="1" t="n">
+      <c r="C125" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -2686,11 +2686,11 @@
           <t>Crotte de nez</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>32</v>
-      </c>
-      <c r="D126" s="1" t="n">
+      <c r="C126" s="1" t="n">
         <v>45334</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2704,11 +2704,11 @@
           <t>Déteindre sur qqn</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>16</v>
-      </c>
-      <c r="D127" s="1" t="n">
+      <c r="C127" s="1" t="n">
         <v>45315</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -2722,11 +2722,11 @@
           <t>ricaner/sourire avec mépris</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>8</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <v>45309</v>
+      <c r="C128" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -2740,11 +2740,11 @@
           <t>L’air usé</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>45309</v>
+      <c r="C129" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -2758,11 +2758,11 @@
           <t>bossy=autoritaire/qui fait son petit chef</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>16</v>
-      </c>
-      <c r="D130" s="1" t="n">
+      <c r="C130" s="1" t="n">
         <v>45321</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -2776,11 +2776,11 @@
           <t>abasourdi/hébété</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1" t="n">
-        <v>45309</v>
+      <c r="C131" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2794,11 +2794,11 @@
           <t>faiblement</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>4</v>
-      </c>
-      <c r="D132" s="1" t="n">
+      <c r="C132" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -2812,11 +2812,11 @@
           <t>Pat sth=(animal)caresser/donner une tape à qun/sur qch</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" s="1" t="n">
-        <v>45309</v>
+      <c r="C133" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2830,11 +2830,11 @@
           <t>shudder=trembler/frémir</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>2</v>
-      </c>
-      <c r="D134" s="1" t="n">
+      <c r="C134" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2848,11 +2848,11 @@
           <t>capot</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" s="1" t="n">
+      <c r="C135" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2869,11 +2869,11 @@
 To give sth a wobble=secouer/secouer légèrement</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" s="1" t="n">
-        <v>45309</v>
+      <c r="C136" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2887,11 +2887,11 @@
           <t>Caramel mou</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>4</v>
-      </c>
-      <c r="D137" s="1" t="n">
+      <c r="C137" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -2905,11 +2905,11 @@
           <t>Wear off=diminuer/s’atténuer/s’estomer</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" s="1" t="n">
-        <v>45309</v>
+      <c r="C138" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2923,11 +2923,11 @@
           <t>purplish=pourpre/violet</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="1" t="n">
-        <v>45309</v>
+      <c r="C139" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2942,11 +2942,11 @@
 Skim sth(text)=parcourir rapidement/lire en diagonal</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1" t="n">
-        <v>45309</v>
+      <c r="C140" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -2962,11 +2962,11 @@
 (sentiments)qui diminue/qui s’amoindrit</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" s="1" t="n">
-        <v>45309</v>
+      <c r="C141" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2982,11 +2982,11 @@
 (lumière)vaciller/clignoter</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" s="1" t="n">
-        <v>45309</v>
+      <c r="C142" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3002,11 +3002,11 @@
 chanceler/vaciller</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" s="1" t="n">
-        <v>45309</v>
+      <c r="C143" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3020,11 +3020,11 @@
           <t>son estomac s'est retourné</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>2</v>
-      </c>
-      <c r="D144" s="1" t="n">
-        <v>45309</v>
+      <c r="C144" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3038,11 +3038,11 @@
           <t>(figuratives) (joues) creux, creusé#(visage creusé)</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>4</v>
-      </c>
-      <c r="D145" s="1" t="n">
-        <v>45309</v>
+      <c r="C145" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -3057,11 +3057,11 @@
 (landscape)morne/désolé</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" s="1" t="n">
-        <v>45309</v>
+      <c r="C146" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3077,11 +3077,11 @@
 Amener qqn (vers qqch)</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" s="1" t="n">
-        <v>45309</v>
+      <c r="C147" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3095,11 +3095,11 @@
           <t>(péjoratif)Vieille sorcière/vieille chouette/vieille peau</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="n">
-        <v>45309</v>
+      <c r="C148" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3113,11 +3113,11 @@
           <t>sorcier</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="n">
-        <v>45309</v>
+      <c r="C149" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3131,11 +3131,11 @@
           <t>raucous(adj)=tapageur</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>2</v>
-      </c>
-      <c r="D150" s="1" t="n">
-        <v>45309</v>
+      <c r="C150" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3150,11 +3150,11 @@
 Squirt [sth]=faire gicler/faire jaillir/asperger</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>2</v>
-      </c>
-      <c r="D151" s="1" t="n">
+      <c r="C151" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3169,11 +3169,11 @@
 slab(UK)=table d’opération/table d’autopsie</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <v>45309</v>
+      <c r="C152" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3188,11 +3188,11 @@
 (figurative)=chahut/vacarme/pagaille</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="n">
-        <v>45309</v>
+      <c r="C153" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3206,11 +3206,11 @@
           <t>Trample [sth]=piétiner/fouler aux pieds</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="n">
-        <v>45309</v>
+      <c r="C154" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3224,11 +3224,11 @@
           <t>omen=présage/signe/augure</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="n">
-        <v>45309</v>
+      <c r="C155" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3243,11 +3243,11 @@
 saluer qqn de la main,faire un signe de la main à qqn</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>2</v>
-      </c>
-      <c r="D156" s="1" t="n">
-        <v>45309</v>
+      <c r="C156" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3261,11 +3261,11 @@
           <t>Blowfly=mouche à viande</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" s="1" t="n">
-        <v>45309</v>
+      <c r="C157" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3280,11 +3280,11 @@
 ( soutenu)affligé</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="n">
-        <v>45309</v>
+      <c r="C158" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3300,11 +3300,11 @@
 (figurative)=monter/grimper en flèche</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1" t="n">
-        <v>45309</v>
+      <c r="C159" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3319,11 +3319,11 @@
 (figurative)propulser</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="n">
-        <v>45309</v>
+      <c r="C160" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3338,11 +3338,11 @@
 soporifique</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1" t="n">
+      <c r="C161" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3356,11 +3356,11 @@
           <t>suinter/couler</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="n">
-        <v>45309</v>
+      <c r="C162" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3374,11 +3374,11 @@
           <t>dévisser</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>2</v>
-      </c>
-      <c r="D163" s="1" t="n">
-        <v>45309</v>
+      <c r="C163" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -3392,11 +3392,11 @@
           <t>tranche/écart</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" s="1" t="n">
+      <c r="C164" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3410,11 +3410,11 @@
           <t>baratté</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="n">
-        <v>45309</v>
+      <c r="C165" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3428,11 +3428,11 @@
           <t>Un tourbillon de couleurs ternes</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="n">
-        <v>45309</v>
+      <c r="C166" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3447,11 +3447,11 @@
 Avec assurance/d’un pas assuré</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="n">
-        <v>45309</v>
+      <c r="C167" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3465,11 +3465,11 @@
           <t>fleurir</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="n">
-        <v>45309</v>
+      <c r="C168" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3483,11 +3483,11 @@
           <t>acte/action</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1" t="n">
-        <v>45309</v>
+      <c r="C169" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3502,11 +3502,11 @@
 Meddle in [sth]=se mêler de [qqch]</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="n">
-        <v>45309</v>
+      <c r="C170" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3520,11 +3520,11 @@
           <t>humeur</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="n">
-        <v>45309</v>
+      <c r="C171" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3538,11 +3538,11 @@
           <t>renouée (plante)</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="n">
-        <v>45309</v>
+      <c r="C172" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3556,11 +3556,11 @@
           <t>désordre/(familier)pagaille/bazar</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>2</v>
-      </c>
-      <c r="D173" s="1" t="n">
-        <v>45309</v>
+      <c r="C173" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -3574,11 +3574,11 @@
           <t>faiblement</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>4</v>
-      </c>
-      <c r="D174" s="1" t="n">
+      <c r="C174" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -3592,11 +3592,11 @@
           <t>prowl=rôder</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>2</v>
-      </c>
-      <c r="D175" s="1" t="n">
+      <c r="C175" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -3610,11 +3610,11 @@
           <t>riposter/contre-attaquer/se venger</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="n">
-        <v>45309</v>
+      <c r="C176" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3628,11 +3628,11 @@
           <t>Blunder around=se déplacer maladroitement</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>2</v>
-      </c>
-      <c r="D177" s="1" t="n">
+      <c r="C177" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -3646,11 +3646,11 @@
           <t>droop=pendre/tomber/s’affaisser</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="n">
-        <v>45309</v>
+      <c r="C178" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3664,11 +3664,11 @@
           <t>Stir [sth]=mélanger</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="n">
-        <v>45309</v>
+      <c r="C179" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3682,11 +3682,11 @@
           <t>Beckon [sb] =attirer/appeler</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>4</v>
-      </c>
-      <c r="D180" s="1" t="n">
+      <c r="C180" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -3700,11 +3700,11 @@
           <t>bare=dévoiler/découvrir</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>2</v>
-      </c>
-      <c r="D181" s="1" t="n">
-        <v>45309</v>
+      <c r="C181" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3718,11 +3718,11 @@
           <t>perdu/confus</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="n">
-        <v>45309</v>
+      <c r="C182" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3736,11 +3736,11 @@
           <t>shrewd=malin/futé/rusé</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="n">
-        <v>45309</v>
+      <c r="C183" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3755,11 +3755,11 @@
 snigger=(US)ricanement/(UK)rire moqueur</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1" t="n">
+      <c r="C184" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3773,11 +3773,11 @@
           <t>skulk=rôder</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>2</v>
-      </c>
-      <c r="D185" s="1" t="n">
+      <c r="C185" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -3791,11 +3791,11 @@
           <t>dull=ennuyeux/sans intérêt/insipide</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>2</v>
-      </c>
-      <c r="D186" s="1" t="n">
-        <v>45309</v>
+      <c r="C186" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -3809,11 +3809,11 @@
           <t>drone=bourdonnement(ici)</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="n">
-        <v>45309</v>
+      <c r="C187" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3827,11 +3827,11 @@
           <t>trance=(figurative)transe/rêverie</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="n">
-        <v>45309</v>
+      <c r="C188" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3845,11 +3845,11 @@
           <t>chalk=craie</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1" t="n">
+      <c r="C189" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -3863,11 +3863,11 @@
           <t>faiblement/(voir)vaguement/indistinctement/(se souvenir)vaguement</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>2</v>
-      </c>
-      <c r="D190" s="1" t="n">
+      <c r="C190" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -3881,11 +3881,11 @@
           <t>malaise/inquiétude</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>2</v>
-      </c>
-      <c r="D191" s="1" t="n">
+      <c r="C191" s="1" t="n">
         <v>45311</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3899,11 +3899,11 @@
           <t>shudder=trembler/frémir</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="n">
-        <v>45309</v>
+      <c r="C192" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3917,11 +3917,11 @@
           <t>mope=se morfondre/broyer du noir/trainer son ennui</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>2</v>
-      </c>
-      <c r="D193" s="1" t="n">
-        <v>45309</v>
+      <c r="C193" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3936,11 +3936,11 @@
 s’écailler/s’effriter</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>2</v>
-      </c>
-      <c r="D194" s="1" t="n">
+      <c r="C194" s="1" t="n">
         <v>45310</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3954,11 +3954,11 @@
           <t>Gond/charnière</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="n">
-        <v>45309</v>
+      <c r="C195" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3972,11 +3972,11 @@
           <t>citerne /cuve</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="n">
-        <v>45309</v>
+      <c r="C196" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3990,11 +3990,11 @@
           <t>Percy s’est gonflé d’une manière</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>4</v>
-      </c>
-      <c r="D197" s="1" t="n">
+      <c r="C197" s="1" t="n">
         <v>45313</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -4008,11 +4008,11 @@
           <t>shrug=hausser les épaules</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="n">
-        <v>45309</v>
+      <c r="C198" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4026,11 +4026,11 @@
           <t>chivvy=(UK)presser/pousser (hurry or harass)</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="n">
-        <v>45309</v>
+      <c r="C199" s="1" t="n">
+        <v>45309</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
